--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_unify_node_index/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_unified_node.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_unify_node_index/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_unified_node.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_unify_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938EA15-3A4A-415C-909D-9AE035295929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE8E10A-E5DF-4D53-AFC5-20D9462159EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -387,8 +387,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8685,25 +8683,25 @@
       <c r="S10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="3">
         <v>3.743100194812182</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="3">
         <v>5.5315265817238606</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="3">
         <v>5.0383366687905848</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="3">
         <v>6.4829160901503169</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="3">
         <v>9.6349444909891542</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="3">
         <v>11.41129995025652</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="3">
         <v>7.6040437426649179</v>
       </c>
     </row>
@@ -8768,25 +8766,25 @@
       <c r="S12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="3">
         <v>92.022092118687723</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="3">
         <v>90.595214790087795</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="3">
         <v>88.72492398805278</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="3">
         <v>81.329213739665462</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="3">
         <v>68.057323824939019</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="3">
         <v>54.712414434422755</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="3">
         <v>34.35693765758699</v>
       </c>
     </row>
